--- a/files/Пользовательский_конфиг.xlsx
+++ b/files/Пользовательский_конфиг.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DepsData\Тендер\_Тендеры\Поиск подрядчиков\Производственный план МСК 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.afanasyeva\RPA\Самолет\Файл планирования\План 2024\SMTP_Plan_Module_old\Planning\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30585DC7-77C6-42D6-A2A8-A84D0749BD96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF40AE-2146-442A-918F-773C27345A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Как пользоваться конфигом" sheetId="2" r:id="rId1"/>
@@ -40,214 +40,214 @@
     <t>OBJECT_TYPES_BLACKLIST</t>
   </si>
   <si>
+    <t>Лист</t>
+  </si>
+  <si>
+    <t>Настройки</t>
+  </si>
+  <si>
+    <t>Ключ</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Добавление новых ключей</t>
+  </si>
+  <si>
+    <t>Изменение значений</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Изменение существующих ключей</t>
+  </si>
+  <si>
+    <t>Добавление новых колонок</t>
+  </si>
+  <si>
+    <t>Что можно и что не стоит делать с информацией в листах</t>
+  </si>
+  <si>
+    <t>Маппинг - Виды работ</t>
+  </si>
+  <si>
+    <t>Хранит настройки с определенным неизменяемым ключом, и значениями, которые могут изменяться пользователем</t>
+  </si>
+  <si>
+    <t>Группы работ</t>
+  </si>
+  <si>
+    <t>Сопоставление всех возможных названий видов работ на названия из файла "Виды работ.xlsx"</t>
+  </si>
+  <si>
+    <t>Группы работ необходимые для соответствующего ранжирования</t>
+  </si>
+  <si>
+    <t>Типы объектов, которые не обрабатываются</t>
+  </si>
+  <si>
+    <t>Номер группы</t>
+  </si>
+  <si>
+    <t>Вид работы</t>
+  </si>
+  <si>
+    <t>Монолит</t>
+  </si>
+  <si>
+    <t>Кладка стен и перегородок</t>
+  </si>
+  <si>
+    <t>Кровля</t>
+  </si>
+  <si>
+    <t>Отделочные работы (внутренние)</t>
+  </si>
+  <si>
+    <t>ОВ и ВК (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>ЭОМ (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>Старое название</t>
+  </si>
+  <si>
+    <t>Новое название</t>
+  </si>
+  <si>
+    <t>монолит</t>
+  </si>
+  <si>
+    <t>слаботочные сети (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>слаботочка</t>
+  </si>
+  <si>
+    <t>сс</t>
+  </si>
+  <si>
+    <t>овивк</t>
+  </si>
+  <si>
+    <t>ов и вк (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>каменная кладка</t>
+  </si>
+  <si>
+    <t>кладка</t>
+  </si>
+  <si>
+    <t>отделка</t>
+  </si>
+  <si>
+    <t>отделочные работы (внутренние)</t>
+  </si>
+  <si>
+    <t>кровля</t>
+  </si>
+  <si>
+    <t>эом</t>
+  </si>
+  <si>
+    <t>эом (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>эом и котлованы</t>
+  </si>
+  <si>
+    <t>монтаж лифтов</t>
+  </si>
+  <si>
+    <t>лифты</t>
+  </si>
+  <si>
+    <t>лифты (пир и смр)</t>
+  </si>
+  <si>
+    <t>благоустройство и котлованы</t>
+  </si>
+  <si>
+    <t>благоустройство</t>
+  </si>
+  <si>
+    <t>благоустройство и озеленение</t>
+  </si>
+  <si>
+    <t>земляные работы; подготовительные работы</t>
+  </si>
+  <si>
+    <t>котлованы</t>
+  </si>
+  <si>
+    <t>Слаботочные сети (внутридомовые системы)</t>
+  </si>
+  <si>
+    <t>Лифты (ПИР и СМР)</t>
+  </si>
+  <si>
+    <t>Благоустройство и озеленение</t>
+  </si>
+  <si>
+    <t>Земляные работы; Подготовительные работы</t>
+  </si>
+  <si>
+    <t>Оценки за ранжирование</t>
+  </si>
+  <si>
+    <t>Максимальные оценки за каждый вид ранжирования</t>
+  </si>
+  <si>
+    <t>Изменение существующих колонок</t>
+  </si>
+  <si>
+    <t>Вид ранжирования</t>
+  </si>
+  <si>
+    <t>Максимальный балл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описание </t>
+  </si>
+  <si>
+    <t>consolidation_tasks_ranging</t>
+  </si>
+  <si>
+    <t>continuity_ranging</t>
+  </si>
+  <si>
+    <t>total_capacity_ranging</t>
+  </si>
+  <si>
+    <t>rate_ranging</t>
+  </si>
+  <si>
+    <t>location_ranging</t>
+  </si>
+  <si>
+    <t>cлаботочные сети (внутридомовые системы</t>
+  </si>
+  <si>
+    <t>кладка стен и перегородок</t>
+  </si>
+  <si>
+    <t>котлован</t>
+  </si>
+  <si>
+    <t>земляные работы</t>
+  </si>
+  <si>
+    <t>Земляные работы</t>
+  </si>
+  <si>
+    <t>Фасадные работы (вентфасад)</t>
+  </si>
+  <si>
     <t>Паркинг; сети; коммерческий</t>
-  </si>
-  <si>
-    <t>Лист</t>
-  </si>
-  <si>
-    <t>Настройки</t>
-  </si>
-  <si>
-    <t>Ключ</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Добавление новых ключей</t>
-  </si>
-  <si>
-    <t>Изменение значений</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Изменение существующих ключей</t>
-  </si>
-  <si>
-    <t>Добавление новых колонок</t>
-  </si>
-  <si>
-    <t>Что можно и что не стоит делать с информацией в листах</t>
-  </si>
-  <si>
-    <t>Маппинг - Виды работ</t>
-  </si>
-  <si>
-    <t>Хранит настройки с определенным неизменяемым ключом, и значениями, которые могут изменяться пользователем</t>
-  </si>
-  <si>
-    <t>Группы работ</t>
-  </si>
-  <si>
-    <t>Сопоставление всех возможных названий видов работ на названия из файла "Виды работ.xlsx"</t>
-  </si>
-  <si>
-    <t>Группы работ необходимые для соответствующего ранжирования</t>
-  </si>
-  <si>
-    <t>Типы объектов, которые не обрабатываются</t>
-  </si>
-  <si>
-    <t>Номер группы</t>
-  </si>
-  <si>
-    <t>Вид работы</t>
-  </si>
-  <si>
-    <t>Монолит</t>
-  </si>
-  <si>
-    <t>Кладка стен и перегородок</t>
-  </si>
-  <si>
-    <t>Кровля</t>
-  </si>
-  <si>
-    <t>Отделочные работы (внутренние)</t>
-  </si>
-  <si>
-    <t>ОВ и ВК (внутридомовые системы)</t>
-  </si>
-  <si>
-    <t>ЭОМ (внутридомовые системы)</t>
-  </si>
-  <si>
-    <t>Старое название</t>
-  </si>
-  <si>
-    <t>Новое название</t>
-  </si>
-  <si>
-    <t>монолит</t>
-  </si>
-  <si>
-    <t>слаботочные сети (внутридомовые системы)</t>
-  </si>
-  <si>
-    <t>слаботочка</t>
-  </si>
-  <si>
-    <t>сс</t>
-  </si>
-  <si>
-    <t>овивк</t>
-  </si>
-  <si>
-    <t>ов и вк (внутридомовые системы)</t>
-  </si>
-  <si>
-    <t>каменная кладка</t>
-  </si>
-  <si>
-    <t>кладка</t>
-  </si>
-  <si>
-    <t>отделка</t>
-  </si>
-  <si>
-    <t>отделочные работы (внутренние)</t>
-  </si>
-  <si>
-    <t>кровля</t>
-  </si>
-  <si>
-    <t>эом</t>
-  </si>
-  <si>
-    <t>эом (внутридомовые системы)</t>
-  </si>
-  <si>
-    <t>эом и котлованы</t>
-  </si>
-  <si>
-    <t>монтаж лифтов</t>
-  </si>
-  <si>
-    <t>лифты</t>
-  </si>
-  <si>
-    <t>лифты (пир и смр)</t>
-  </si>
-  <si>
-    <t>благоустройство и котлованы</t>
-  </si>
-  <si>
-    <t>благоустройство</t>
-  </si>
-  <si>
-    <t>благоустройство и озеленение</t>
-  </si>
-  <si>
-    <t>земляные работы; подготовительные работы</t>
-  </si>
-  <si>
-    <t>котлованы</t>
-  </si>
-  <si>
-    <t>Слаботочные сети (внутридомовые системы)</t>
-  </si>
-  <si>
-    <t>Лифты (ПИР и СМР)</t>
-  </si>
-  <si>
-    <t>Благоустройство и озеленение</t>
-  </si>
-  <si>
-    <t>Земляные работы; Подготовительные работы</t>
-  </si>
-  <si>
-    <t>Оценки за ранжирование</t>
-  </si>
-  <si>
-    <t>Максимальные оценки за каждый вид ранжирования</t>
-  </si>
-  <si>
-    <t>Изменение существующих колонок</t>
-  </si>
-  <si>
-    <t>Вид ранжирования</t>
-  </si>
-  <si>
-    <t>Максимальный балл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание </t>
-  </si>
-  <si>
-    <t>consolidation_tasks_ranging</t>
-  </si>
-  <si>
-    <t>continuity_ranging</t>
-  </si>
-  <si>
-    <t>total_capacity_ranging</t>
-  </si>
-  <si>
-    <t>rate_ranging</t>
-  </si>
-  <si>
-    <t>location_ranging</t>
-  </si>
-  <si>
-    <t>cлаботочные сети (внутридомовые системы</t>
-  </si>
-  <si>
-    <t>кладка стен и перегородок</t>
-  </si>
-  <si>
-    <t>котлован</t>
-  </si>
-  <si>
-    <t>земляные работы</t>
-  </si>
-  <si>
-    <t>Земляные работы</t>
-  </si>
-  <si>
-    <t>Фасадные работы (вентфасад)</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,12 +418,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,145 +704,145 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="66" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -861,20 +858,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -883,293 +880,293 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1187,361 +1184,361 @@
       <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
@@ -1559,325 +1556,325 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1892,225 +1889,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
